--- a/input_file_templates/ez_register_onprem.xlsx
+++ b/input_file_templates/ez_register_onprem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neparaka/Downloads/sl_input_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neparaka/github.com/ios-xr/ez-register/input_file_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB02BFD-A686-384F-81A4-20C82DBB2C57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05583085-D2F1-D446-804F-A5E5199B0DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20080" xr2:uid="{5CF37660-FCC0-2049-BD15-CBCF19B2C5BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{5CF37660-FCC0-2049-BD15-CBCF19B2C5BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
